--- a/data/trans_bre/P1412-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1412-Edad-trans_bre.xlsx
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.289091734036626</v>
+        <v>1.18796727117519</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.801041706956337</v>
+        <v>1.584743606715199</v>
       </c>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.7455791226248648</v>
+        <v>-0.7448456456006878</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.352045322479684</v>
+        <v>-1.300737964461827</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="6" t="inlineStr"/>
@@ -750,7 +750,7 @@
         <v>0.1420875605509912</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.05779662581861479</v>
+        <v>-0.05779662581861481</v>
       </c>
       <c r="F10" s="6" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6128243377066649</v>
+        <v>-0.6273515551516793</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -794,13 +794,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7954113414912203</v>
+        <v>0.9495362878752078</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7162331576820575</v>
+        <v>0.7084554469185622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2542839500329517</v>
+        <v>0.2537274320918865</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>-0.5522882032807391</v>
+        <v>-0.5522882032807389</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-1</v>
@@ -842,15 +842,17 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.246781389497435</v>
+        <v>-1.202521548059626</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>-1.672900923744756</v>
+        <v>-1.80313000700366</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
-      <c r="H14" s="6" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
@@ -864,11 +866,13 @@
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.09065895367223839</v>
+        <v>0.07975319330562607</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
-      <c r="H15" s="6" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.7746557731479189</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -888,7 +892,7 @@
         <v>-1.112969382095077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2720763129367116</v>
+        <v>0.272076312936712</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>2.793694912213315</v>
@@ -897,7 +901,7 @@
         <v>-0.6109559603551561</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3685681531433593</v>
+        <v>0.3685681531433599</v>
       </c>
     </row>
     <row r="17">
@@ -908,20 +912,20 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2514897833262836</v>
+        <v>-0.2449310776945468</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.720768957632247</v>
+        <v>-2.720793836658167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6743554796536808</v>
+        <v>-0.7577336457591217</v>
       </c>
       <c r="F17" s="6" t="inlineStr"/>
       <c r="G17" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.6297173741994312</v>
+        <v>-0.6490329515877035</v>
       </c>
     </row>
     <row r="18">
@@ -932,20 +936,20 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.869327205946998</v>
+        <v>1.832956984999569</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2604959218094155</v>
+        <v>0.2388795868931274</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.141435950787375</v>
+        <v>1.107705396421511</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="n">
-        <v>0.7213775681789729</v>
+        <v>0.8701848710918509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.098674072780226</v>
+        <v>3.917547767245316</v>
       </c>
     </row>
     <row r="19">
@@ -986,22 +990,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-5.164369021009082</v>
+        <v>-5.132107740666335</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.335662744353866</v>
+        <v>-3.239533055262839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-2.699464003127176</v>
+        <v>-2.719478453373634</v>
       </c>
       <c r="F20" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.8895933953572439</v>
+        <v>-0.8740164270510294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.8044584466133842</v>
+        <v>-0.8070745095652895</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1016,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01303965899873751</v>
+        <v>-0.1122093473584967</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9862599030643343</v>
+        <v>0.9265302368451732</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1681108857110473</v>
+        <v>0.07732980633407689</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4142248208656328</v>
+        <v>0.5982888780392306</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.060510953469414</v>
+        <v>1.125675756394588</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1678334693389247</v>
+        <v>0.1883051201812813</v>
       </c>
     </row>
     <row r="22">
@@ -1057,7 +1061,7 @@
         <v>-0.3460613241651501</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>-0.5991600972221393</v>
+        <v>-0.5991600972221394</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1072,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.742838187361451</v>
+        <v>-3.482371737626267</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.503952414818502</v>
+        <v>-3.478188420994949</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.541793399454623</v>
+        <v>-4.474080423530904</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.6259156132258519</v>
+        <v>-0.558033968138839</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.8247209549515775</v>
+        <v>-0.8183319189046541</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8194516877294995</v>
+        <v>-0.8061563504775792</v>
       </c>
     </row>
     <row r="24">
@@ -1094,22 +1098,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.850523682875684</v>
+        <v>3.067577395462022</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.290388706393079</v>
+        <v>1.271306338667672</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.4412043529407063</v>
+        <v>-0.4933322053681609</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.202380502931973</v>
+        <v>1.370359360920715</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.252177143360544</v>
+        <v>0.9458846083383911</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1710276745215161</v>
+        <v>-0.1314448320757387</v>
       </c>
     </row>
     <row r="25">
@@ -1150,22 +1154,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.356919786393723</v>
+        <v>-0.3787558286878761</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.5985047621162787</v>
+        <v>-0.6495764488322336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.72771543821339</v>
+        <v>-0.7602733274298666</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4305494477214354</v>
+        <v>-0.4583820301839956</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6390514527319607</v>
+        <v>-0.6666885994090532</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6413935977594726</v>
+        <v>-0.6027763648804536</v>
       </c>
     </row>
     <row r="27">
@@ -1176,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4306279041000217</v>
+        <v>0.4403039440375304</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1778915113654507</v>
+        <v>0.1679158851305826</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.02462819732105157</v>
+        <v>-0.0450411527892384</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.061640264197676</v>
+        <v>0.9857227945931539</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3771729096635495</v>
+        <v>0.3097932623061579</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.01898119258041164</v>
+        <v>0.001692721558090599</v>
       </c>
     </row>
     <row r="28">
